--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Fgf9</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.7364236666666667</v>
+      </c>
+      <c r="H2">
+        <v>2.209271</v>
+      </c>
+      <c r="I2">
+        <v>0.9917500467982164</v>
+      </c>
+      <c r="J2">
+        <v>0.9944848646626661</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.883656666666667</v>
-      </c>
-      <c r="H2">
-        <v>5.650970000000001</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.6294270145944445</v>
+        <v>0.2679904636893333</v>
       </c>
       <c r="R2">
-        <v>5.664843131350001</v>
+        <v>2.411914173204</v>
       </c>
       <c r="S2">
-        <v>0.02354483703663662</v>
+        <v>0.01109740587853335</v>
       </c>
       <c r="T2">
-        <v>0.03467746452042096</v>
+        <v>0.01654092345859204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H3">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.2892656196733334</v>
+        <v>0.1130896367953333</v>
       </c>
       <c r="R3">
-        <v>2.60339057706</v>
+        <v>1.017806731158</v>
       </c>
       <c r="S3">
-        <v>0.01082049501783563</v>
+        <v>0.00468300842834687</v>
       </c>
       <c r="T3">
-        <v>0.01593671391696275</v>
+        <v>0.006980125338937713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H4">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>25.74668297658167</v>
+        <v>0.04604758997844444</v>
       </c>
       <c r="R4">
-        <v>154.48009785949</v>
+        <v>0.414428309806</v>
       </c>
       <c r="S4">
-        <v>0.9631004721145509</v>
+        <v>0.001906817088504564</v>
       </c>
       <c r="T4">
-        <v>0.9456533902920258</v>
+        <v>0.002842152107953519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7364236666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.209271</v>
+      </c>
+      <c r="I5">
+        <v>0.9917500467982164</v>
+      </c>
+      <c r="J5">
+        <v>0.9944848646626661</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>31.927516</v>
+      </c>
+      <c r="N5">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O5">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P5">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q5">
+        <v>23.51217840027866</v>
+      </c>
+      <c r="R5">
+        <v>141.073070401672</v>
+      </c>
+      <c r="S5">
+        <v>0.9736323569291347</v>
+      </c>
+      <c r="T5">
+        <v>0.967480056092882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.7364236666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.209271</v>
+      </c>
+      <c r="I6">
+        <v>0.9917500467982164</v>
+      </c>
+      <c r="J6">
+        <v>0.9944848646626661</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.042347</v>
+      </c>
+      <c r="O6">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P6">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q6">
+        <v>0.01039511100411111</v>
+      </c>
+      <c r="R6">
+        <v>0.09355599903700001</v>
+      </c>
+      <c r="S6">
+        <v>0.0004304584736968792</v>
+      </c>
+      <c r="T6">
+        <v>0.0006416076643006816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.006126</v>
+      </c>
+      <c r="H7">
+        <v>0.012252</v>
+      </c>
+      <c r="I7">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J7">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.363908</v>
+      </c>
+      <c r="N7">
+        <v>1.091724</v>
+      </c>
+      <c r="O7">
+        <v>0.01118972054940699</v>
+      </c>
+      <c r="P7">
+        <v>0.01663265480083782</v>
+      </c>
+      <c r="Q7">
+        <v>0.002229300408</v>
+      </c>
+      <c r="R7">
+        <v>0.013375802448</v>
+      </c>
+      <c r="S7">
+        <v>9.23146708736438E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.173134224577686E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.006126</v>
+      </c>
+      <c r="H8">
+        <v>0.012252</v>
+      </c>
+      <c r="I8">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J8">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.153566</v>
+      </c>
+      <c r="N8">
+        <v>0.460698</v>
+      </c>
+      <c r="O8">
+        <v>0.004721964413781051</v>
+      </c>
+      <c r="P8">
+        <v>0.007018835164781924</v>
+      </c>
+      <c r="Q8">
+        <v>0.0009407453160000001</v>
+      </c>
+      <c r="R8">
+        <v>0.005644471896000001</v>
+      </c>
+      <c r="S8">
+        <v>3.895598543418113E-05</v>
+      </c>
+      <c r="T8">
+        <v>3.870982584421054E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.883656666666667</v>
-      </c>
-      <c r="H5">
-        <v>5.650970000000001</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.006126</v>
+      </c>
+      <c r="H9">
+        <v>0.012252</v>
+      </c>
+      <c r="I9">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J9">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.03596566666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.107897</v>
-      </c>
-      <c r="O5">
-        <v>0.002534195830976933</v>
-      </c>
-      <c r="P5">
-        <v>0.003732431270590561</v>
-      </c>
-      <c r="Q5">
-        <v>0.06774696778777779</v>
-      </c>
-      <c r="R5">
-        <v>0.6097227100900001</v>
-      </c>
-      <c r="S5">
-        <v>0.002534195830976933</v>
-      </c>
-      <c r="T5">
-        <v>0.003732431270590561</v>
+      <c r="M9">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.187586</v>
+      </c>
+      <c r="O9">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P9">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q9">
+        <v>0.000383050612</v>
+      </c>
+      <c r="R9">
+        <v>0.002298303672</v>
+      </c>
+      <c r="S9">
+        <v>1.586201260621123E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.576178188490525E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.006126</v>
+      </c>
+      <c r="H10">
+        <v>0.012252</v>
+      </c>
+      <c r="I10">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J10">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.927516</v>
+      </c>
+      <c r="N10">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P10">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q10">
+        <v>0.195587963016</v>
+      </c>
+      <c r="R10">
+        <v>0.7823518520639999</v>
+      </c>
+      <c r="S10">
+        <v>0.00809923972914307</v>
+      </c>
+      <c r="T10">
+        <v>0.00536537421042959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.006126</v>
+      </c>
+      <c r="H11">
+        <v>0.012252</v>
+      </c>
+      <c r="I11">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J11">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.042347</v>
+      </c>
+      <c r="O11">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P11">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q11">
+        <v>8.647257400000001E-05</v>
+      </c>
+      <c r="R11">
+        <v>0.0005188354440000001</v>
+      </c>
+      <c r="S11">
+        <v>3.580803726478665E-06</v>
+      </c>
+      <c r="T11">
+        <v>3.558176929408819E-06</v>
       </c>
     </row>
   </sheetData>
